--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>first</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t xml:space="preserve">Transfer and dinner English speaking assistance </t>
+  </si>
+  <si>
+    <t>Soho House. La Mercé room rental. 4 hours. From 20h to 00h. Exclusivity for the group.</t>
+  </si>
+  <si>
+    <t>Soho House. Drink package. Open Bar “House wine and Beer” (Basic package). Rate per person per hour. Minimum 2 hours. After 3 hours, no open bar, pay for each drink.</t>
+  </si>
+  <si>
+    <t>Soho House. Drink package. House Open Bar. Rate per person per hour. Including Wine, beer, soft drinks, prosecco and liquors. After 3 hours, no open bar, pay for each drink.</t>
+  </si>
+  <si>
+    <t>Soho House. Drink package. Superior House Open Bar. Rate per person per hour. Including Champagne, Wine, beer, soft drinks, and premium liquors. After 3 hours, no open bar, pay for each drink.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soho House. English speaking assistance - Rate 5 hours for the activity. </t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
@@ -5918,7 +5933,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6882,16 +6897,16 @@
       <c r="B50" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C50" t="s" s="105">
+      <c r="C50" t="s" s="102">
         <v>69</v>
       </c>
-      <c r="D50" s="106">
-        <v>0</v>
-      </c>
-      <c r="E50" s="107">
+      <c r="D50" s="103">
+        <v>0</v>
+      </c>
+      <c r="E50" s="99">
         <v>200</v>
       </c>
-      <c r="F50" s="108">
+      <c r="F50" s="100">
         <f>E50*D50</f>
         <v>0</v>
       </c>
@@ -6899,114 +6914,224 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="109"/>
-      <c r="B51" s="110"/>
-      <c r="C51" t="s" s="111">
+    <row r="51" ht="13.65" customHeight="1">
+      <c r="A51" s="75"/>
+      <c r="B51" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s" s="102">
         <v>70</v>
       </c>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="113">
-        <v>0</v>
-      </c>
-      <c r="G51" s="114"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="73"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="71"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="D51" s="103">
+        <v>0</v>
+      </c>
+      <c r="E51" s="99">
+        <f>600/0.8</f>
+        <v>750</v>
+      </c>
+      <c r="F51" s="100">
+        <f>E51*D51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" ht="24.65" customHeight="1">
+      <c r="A52" s="75"/>
+      <c r="B52" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s" s="102">
+        <v>71</v>
+      </c>
+      <c r="D52" s="103">
+        <v>0</v>
+      </c>
+      <c r="E52" s="99">
+        <v>20</v>
+      </c>
+      <c r="F52" s="100">
+        <f>E52*D52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" ht="24.65" customHeight="1">
+      <c r="A53" s="75"/>
+      <c r="B53" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s" s="102">
+        <v>72</v>
+      </c>
+      <c r="D53" s="103">
+        <v>0</v>
+      </c>
+      <c r="E53" s="99">
+        <v>32</v>
+      </c>
+      <c r="F53" s="100">
+        <f>E53*D53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" ht="35.65" customHeight="1">
+      <c r="A54" s="75"/>
+      <c r="B54" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s" s="102">
+        <v>73</v>
+      </c>
+      <c r="D54" s="103">
+        <v>0</v>
+      </c>
+      <c r="E54" s="99">
+        <v>45</v>
+      </c>
+      <c r="F54" s="100">
+        <f>D54*E54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" ht="14.65" customHeight="1">
+      <c r="A55" s="75"/>
+      <c r="B55" t="s" s="92">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s" s="105">
+        <v>74</v>
+      </c>
+      <c r="D55" s="106">
+        <v>0</v>
+      </c>
+      <c r="E55" s="107">
+        <v>200</v>
+      </c>
+      <c r="F55" s="108">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s" s="91">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="A56" s="109"/>
+      <c r="B56" s="110"/>
+      <c r="C56" t="s" s="111">
+        <v>75</v>
+      </c>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="113">
+        <v>0</v>
+      </c>
+      <c r="G56" s="114"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="71"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
       <c r="G57" s="73"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="71"/>
-      <c r="B58" t="s" s="116">
-        <v>71</v>
-      </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="118"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="73"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="71"/>
-      <c r="B59" t="s" s="116">
-        <v>72</v>
-      </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="118"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="71"/>
-      <c r="B60" t="s" s="116">
-        <v>73</v>
-      </c>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="118"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="73"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="119"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="121"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="73"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="71"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="A63" s="71"/>
+      <c r="B63" t="s" s="116">
+        <v>76</v>
+      </c>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="118"/>
+    </row>
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="A64" s="71"/>
+      <c r="B64" t="s" s="116">
+        <v>77</v>
+      </c>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="118"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="A65" s="71"/>
+      <c r="B65" t="s" s="116">
+        <v>78</v>
+      </c>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="118"/>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="A66" s="119"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7064,7 +7189,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -7078,7 +7203,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -7092,7 +7217,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -7106,7 +7231,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -7120,7 +7245,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -7134,7 +7259,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -7175,19 +7300,19 @@
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
       <c r="C12" t="s" s="124">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s" s="125">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s" s="125">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="125">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="126">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="85">
         <v>30</v>
@@ -7200,7 +7325,7 @@
         <v>43577</v>
       </c>
       <c r="D13" t="s" s="128">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E13" s="129">
         <v>50</v>
@@ -7213,7 +7338,7 @@
         <v>7500</v>
       </c>
       <c r="H13" t="s" s="132">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
@@ -7223,7 +7348,7 @@
         <v>43577</v>
       </c>
       <c r="D14" t="s" s="93">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7236,7 +7361,7 @@
         <v>3120</v>
       </c>
       <c r="H14" t="s" s="132">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
@@ -7246,7 +7371,7 @@
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="97">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E15" s="98">
         <f>E13*2+E14</f>
@@ -7260,7 +7385,7 @@
         <v>150.04</v>
       </c>
       <c r="H15" t="s" s="132">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -7270,7 +7395,7 @@
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="101">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7282,7 +7407,7 @@
         <v>228</v>
       </c>
       <c r="H16" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
@@ -7292,7 +7417,7 @@
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="102">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E17" s="103">
         <v>1</v>
@@ -7304,7 +7429,7 @@
         <v>345</v>
       </c>
       <c r="H17" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
@@ -7314,7 +7439,7 @@
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="101">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7326,7 +7451,7 @@
         <v>60</v>
       </c>
       <c r="H18" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
@@ -7336,7 +7461,7 @@
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="102">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E19" s="103">
         <v>34</v>
@@ -7358,7 +7483,7 @@
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="101">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7381,7 +7506,7 @@
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="102">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E21" s="103">
         <v>102</v>
@@ -7403,7 +7528,7 @@
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="101">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7415,7 +7540,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -7425,7 +7550,7 @@
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="102">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E23" s="103">
         <v>1</v>
@@ -7437,7 +7562,7 @@
         <v>228</v>
       </c>
       <c r="H23" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
@@ -7447,7 +7572,7 @@
         <v>43579</v>
       </c>
       <c r="D24" t="s" s="138">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E24" s="139">
         <v>40</v>
@@ -7459,7 +7584,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s" s="132">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
@@ -7467,7 +7592,7 @@
       <c r="B25" s="123"/>
       <c r="C25" s="142"/>
       <c r="D25" t="s" s="143">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E25" s="144"/>
       <c r="F25" s="144"/>
@@ -7475,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -7503,7 +7628,7 @@
       <c r="B28" s="72"/>
       <c r="C28" s="123"/>
       <c r="D28" t="s" s="148">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7515,7 +7640,7 @@
       <c r="B29" s="72"/>
       <c r="C29" s="123"/>
       <c r="D29" t="s" s="149">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7527,7 +7652,7 @@
       <c r="B30" s="72"/>
       <c r="C30" s="123"/>
       <c r="D30" t="s" s="150">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7539,7 +7664,7 @@
       <c r="B31" s="72"/>
       <c r="C31" s="123"/>
       <c r="D31" t="s" s="150">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7551,7 +7676,7 @@
       <c r="B32" s="72"/>
       <c r="C32" s="123"/>
       <c r="D32" t="s" s="151">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7612,7 +7737,7 @@
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" t="s" s="116">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
@@ -7624,7 +7749,7 @@
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" t="s" s="116">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D39" s="117"/>
       <c r="E39" s="117"/>
@@ -7636,7 +7761,7 @@
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
       <c r="C40" t="s" s="116">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D40" s="117"/>
       <c r="E40" s="117"/>
@@ -7704,13 +7829,13 @@
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" t="s" s="154">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s" s="154">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s" s="154">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -7723,7 +7848,7 @@
         <v>3239.21</v>
       </c>
       <c r="D5" t="s" s="154">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -7736,7 +7861,7 @@
         <v>6478.42</v>
       </c>
       <c r="D6" t="s" s="154">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -7749,7 +7874,7 @@
         <v>6478.42</v>
       </c>
       <c r="D7" t="s" s="154">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E7" s="11"/>
     </row>

--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>first</t>
   </si>
@@ -87,6 +87,9 @@
     <t>Pax</t>
   </si>
   <si>
+    <t>30 - 20 - 15 - 10</t>
+  </si>
+  <si>
     <t>Current date</t>
   </si>
   <si>
@@ -111,169 +114,61 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Montserrat tour - English speaking guide (1 guide every 10 people) - rate per guide - 7 hours rate 
-Bank holiday supplement included </t>
+    <t>Montserrat tour. Including 1 English speaking guide every 10 people,  guides meal allowances deluxe bus at disposal during 7 hours, tickets entrance including Abbey and museum, whispers and lunch at Mirador de les Caves. Menu:  3 main courses + drink package (1 wine bottle each 3 people, water and coffee). Rate per person.</t>
   </si>
   <si>
     <t>activity</t>
   </si>
   <si>
-    <t xml:space="preserve">Guides meal allowances - rate per guide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat tour. 50 seater Deluxe Bus at disposal for the activity 7 hours </t>
-  </si>
-  <si>
-    <t>Montserrat tour. Montserrat tickets entrance including Abbey and Museum entrances</t>
-  </si>
-  <si>
-    <t>Montserrat tour. Whispers. Rate per unit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat tour. Lunch at Mirador de les Caves. Menu: individual, main dish, dessert and drink package (mineral water, wine (1 bottle every 3 people) and coffee or tea) starting at </t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional - Visit Segura Viudas winery: Traditional visit including 2 wines tasting - rate per person from </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Gaudí tour. English speaking guide (1 guide every 10 people) - rate per guide - 4 hours rate 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Bank holiday supplement included </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaudi tour 50 seater Deluxe Bus at disposal for the activity 4 hours </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaudí tour. Sagrada Familia tickets - basic tickets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaudí tour. Parc Güell tickets. </t>
-  </si>
-  <si>
-    <t>Gaudí tour. Parking for the bus. 90’ as maximum.</t>
-  </si>
-  <si>
-    <t>Gaudí tour. Whispers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaudí tour. Lunch at Cal Pinxo Port Vell. Menus: Tapas to share, Paella as main dish, dessert and drink package (mineral water, wine (1 bottle every 3 people) and coffee) starting at </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch assistance </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Oldtown (Gothic and Born quarters)  walking tour. English speaking guide (1 guide every 10 people) - rate per guide - 4 hours rate 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Bank holiday supplement included </t>
-    </r>
-  </si>
-  <si>
-    <t>Oldtown (Gothic and Born quarters)  walking tour.  Whispers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldtown (Gothic and Born quarters)  walking tour.  Stop at the city centre to have a drink and a tapa. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abadal winery. Visit and wine tasting including  wines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abadal winery. Space rental for lunch - Room San Ramon in exclusivity for the group </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abadal winery. Lunch menu - 3 courses menu, wines and coffee included from </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abadal winery. 50 seater Deluxe Bus at disposal 6 hours for the activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abadal winery. English speaking guide for transfer from Barcelona to winery and lunch assistance - full day rate - rate per guide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Roca Village. 30 seater Deluxe Bus at disposal 5 hours for the activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Roca Village. English speaking assistance - rate 5 hours for the activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Roca Village. Assistant meal allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Roca Village. La Pasarela. 3 courses menus, 1/2 mineral water per person, 1 glass of wine per person and coffee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP services - TBC </t>
-  </si>
-  <si>
-    <t>Karting. Grand Prix. Practices, qualifiers and race. Including speaker, podium celebration and cava. Rate per person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karting. 30 seater Deluxe Bus at disposal 5 hours for the activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karting.  English speaking assistance - rate 5 hours for the activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karting.  Open bar during the competition - rate per person from </t>
-  </si>
-  <si>
-    <t>La Pedrera Night Experience. Room rental for exclusivity.  dinner including the night visit with 1 guide and 1 glass of Cava at Patio de las Mariposas  - room up to 30 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catering dinner - 3 courses menu, including drink package and coffee - rate per person from </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighting and decor of the room from </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Pedrera Night Experience. 30 seater Deluxe Bus at disposal 4 hours for the activity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer and dinner English speaking assistance </t>
-  </si>
-  <si>
-    <t>Soho House. La Mercé room rental. 4 hours. From 20h to 00h. Exclusivity for the group.</t>
-  </si>
-  <si>
-    <t>Soho House. Drink package. Open Bar “House wine and Beer” (Basic package). Rate per person per hour. Minimum 2 hours. After 3 hours, no open bar, pay for each drink.</t>
-  </si>
-  <si>
-    <t>Soho House. Drink package. House Open Bar. Rate per person per hour. Including Wine, beer, soft drinks, prosecco and liquors. After 3 hours, no open bar, pay for each drink.</t>
-  </si>
-  <si>
-    <t>Soho House. Drink package. Superior House Open Bar. Rate per person per hour. Including Champagne, Wine, beer, soft drinks, and premium liquors. After 3 hours, no open bar, pay for each drink.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soho House. English speaking assistance - Rate 5 hours for the activity. </t>
+    <t xml:space="preserve">Rate from 10 to 15 attendees  - rate per person from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate from 16 to 20 attendees - rate per person from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate from 21 to 30 attendees - rate per person from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional after Monterrat visit - Visit Segura Viudas winery: Traditional visit including 2 wines tasting - rate per person from </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaudí tour. Including 1 English speaking guide every 10 people, deluxe bus at disposal, Sagrada Familia and Parc Güell tickets entrance, Bus parking at Parc Güell, whispers, lunch at Cal Pinxo: starters to share, paella main course, dessert and drink package (water, wine (1/3 per person) and coffee), and lunch assistance. </t>
+  </si>
+  <si>
+    <t>Oldtown tour. Including 1 English speaking guide every 10 people, whispers and stop in a bar at city centre to have a drink and a tapa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abadal winery. Including guided visit + wine tasting, space rental for lunch, lunch menu, Deluxe bus at disposal 6 hours, 1 english speaking assistant for transfers from Barcelona to winery and lunch assistance. </t>
+  </si>
+  <si>
+    <t>La Roca Village. Including deluxe bus at disposal 5 hours for the activity, English speaking assistance and meal allowance, lunch at Pasarela restaurant (3 courses menu + drink package (1/2 water  and 1 glass of wine  and coffee). VIP services (VIP discount, Hands free, and VIP lounge with drinks (if  2000€ expended in the shops)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 pax - Karting. Including Grand prix (practices, qualifiers and race with speaker and podium celebration), 30 bus at disposal and english speaking assistant and open bar during the competition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Pedrera nigh experience. Including:  room rental in exclusivity, welcome drink, catering dinner (3 courses menu including drinks and coffee), lighting and decor of the room,  Deluxe bus at disposal 4 hours for activity and english speaking assistant. - rate valid for a minimum of 30 paying guests </t>
+  </si>
+  <si>
+    <t>May 8th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner at Soho House Barcelona. Including  La Mercè room rental 4 hours from 20h to 00h, menu, drink package open bar during 3 hours (beer, wine and water)  and english speaking assistance. Rate per person- rate valid for a minimum of 30 paying guests </t>
+  </si>
+  <si>
+    <t>Optional - Deluxe Bus at disposal for dinner 5 hours soho</t>
+  </si>
+  <si>
+    <t>Soho House drinks. Including La Mercè room rental 4 hours from 20h to 00h in exclusivity for the group, 3 hours open bar for the group. Basic drink package (wine and beer) and english speaking assistance. After 3 hours, guests will pay for each drink. rate per person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soho House drinks. Including La Mercè room rental 4 hours from 20h to 00h in exclusivity for the group, 3 hours open bar for the group. Medium drink package (Wine, beer, soft drinks, prosecco and liquors) and english speaking assistance. After 3 hours, guests will pay for each drink. Rate per person - rate valid for a minimum of 30 paying guests </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soho House drinks. Including La Mercè room rental 4 hours from 20h to 00h in exclusivity for the group, 3 hours open bar for the group. Advanced drink package (Wine, beer, soft drinks, champagne and premium liquors) and english speaking assistance. After 3 hours, guests will pay for each drink. Rate per person - rate valid for a minimum of 30 paying guests </t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
@@ -367,6 +262,9 @@
   </si>
   <si>
     <t>Dinner at Alba Granados</t>
+  </si>
+  <si>
+    <t>restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">Drinks during the activity - 3 beers per person </t>
@@ -580,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -865,8 +763,8 @@
         <color indexed="10"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,8 +799,8 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -934,8 +832,8 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,21 +846,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -987,12 +870,53 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1347,7 +1271,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1585,7 +1509,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1624,76 +1548,85 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="15" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="14" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="16" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1705,85 +1638,94 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1792,10 +1734,10 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1804,7 +1746,7 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -5933,7 +5875,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6038,8 +5980,8 @@
       <c r="B9" t="s" s="78">
         <v>22</v>
       </c>
-      <c r="C9" s="79">
-        <v>30</v>
+      <c r="C9" t="s" s="79">
+        <v>23</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="72"/>
@@ -6049,10 +5991,10 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="75"/>
       <c r="B10" t="s" s="80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="80">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="72"/>
@@ -6080,1058 +6022,775 @@
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="71"/>
       <c r="B13" t="s" s="82">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="83">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s" s="83">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s" s="83">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s" s="84">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s" s="85">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="33.05" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="47.15" customHeight="1">
       <c r="A14" s="75"/>
       <c r="B14" t="s" s="86">
         <v>18</v>
       </c>
       <c r="C14" t="s" s="87">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="88">
         <v>0</v>
       </c>
       <c r="E14" s="89">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F14" s="90">
-        <f>E14*D14</f>
         <v>0</v>
       </c>
       <c r="G14" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="18.7" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="20.95" customHeight="1">
       <c r="A15" s="75"/>
-      <c r="B15" t="s" s="92">
-        <v>18</v>
-      </c>
+      <c r="B15" s="92"/>
       <c r="C15" t="s" s="93">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="94">
         <v>0</v>
       </c>
       <c r="E15" s="95">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="F15" s="96">
         <f>E15*D15</f>
         <v>0</v>
       </c>
       <c r="G15" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" ht="18.7" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="21.75" customHeight="1">
       <c r="A16" s="75"/>
-      <c r="B16" t="s" s="92">
-        <v>18</v>
-      </c>
+      <c r="B16" s="92"/>
       <c r="C16" t="s" s="93">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="94">
         <v>0</v>
       </c>
       <c r="E16" s="95">
-        <v>750</v>
-      </c>
-      <c r="F16" s="96">
-        <f>E16*D16</f>
+        <v>174</v>
+      </c>
+      <c r="F16" s="97">
+        <f>D16*E16</f>
         <v>0</v>
       </c>
       <c r="G16" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="19.3" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="19.15" customHeight="1">
       <c r="A17" s="75"/>
-      <c r="B17" t="s" s="92">
+      <c r="B17" s="92"/>
+      <c r="C17" t="s" s="93">
+        <v>36</v>
+      </c>
+      <c r="D17" s="94">
+        <v>0</v>
+      </c>
+      <c r="E17" s="95">
+        <v>147</v>
+      </c>
+      <c r="F17" s="98">
+        <f>D17*E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="s" s="91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="24.65" customHeight="1">
+      <c r="A18" s="75"/>
+      <c r="B18" t="s" s="86">
         <v>18</v>
       </c>
-      <c r="C17" t="s" s="97">
-        <v>35</v>
-      </c>
-      <c r="D17" s="98">
-        <v>0</v>
-      </c>
-      <c r="E17" s="99">
-        <f>16/0.8</f>
+      <c r="C18" t="s" s="99">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s" s="100">
+        <v>38</v>
+      </c>
+      <c r="E18" s="95">
         <v>20</v>
       </c>
-      <c r="F17" s="100">
-        <f>E17*D17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s" s="101">
-        <v>36</v>
-      </c>
-      <c r="D18" s="94">
-        <v>0</v>
-      </c>
-      <c r="E18" s="95">
-        <v>6</v>
-      </c>
-      <c r="F18" s="96">
+      <c r="F18" s="101">
         <f>D18*E18</f>
         <v>0</v>
       </c>
-      <c r="G18" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" ht="24.65" customHeight="1">
+      <c r="G18" t="s" s="102">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="46.65" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C19" t="s" s="102">
-        <v>37</v>
-      </c>
-      <c r="D19" s="103">
+      <c r="C19" t="s" s="93">
+        <v>39</v>
+      </c>
+      <c r="D19" s="94">
         <v>0</v>
       </c>
-      <c r="E19" s="99">
-        <v>40</v>
-      </c>
-      <c r="F19" s="100">
-        <f>D19*E19</f>
+      <c r="E19" s="95">
         <v>0</v>
       </c>
+      <c r="F19" s="98">
+        <v>0</v>
+      </c>
       <c r="G19" t="s" s="91">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="19.55" customHeight="1">
       <c r="A20" s="75"/>
-      <c r="B20" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s" s="101">
-        <v>39</v>
+      <c r="B20" s="92"/>
+      <c r="C20" t="s" s="93">
+        <v>34</v>
       </c>
       <c r="D20" s="94">
         <v>0</v>
       </c>
       <c r="E20" s="95">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F20" s="96">
-        <f>D20*E20</f>
+        <f>E20*D20</f>
         <v>0</v>
       </c>
       <c r="G20" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="19.3" customHeight="1">
       <c r="A21" s="75"/>
-      <c r="B21" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s" s="101">
-        <v>40</v>
+      <c r="B21" s="92"/>
+      <c r="C21" t="s" s="93">
+        <v>35</v>
       </c>
       <c r="D21" s="94">
         <v>0</v>
       </c>
       <c r="E21" s="95">
-        <v>250</v>
-      </c>
-      <c r="F21" s="96">
+        <v>164</v>
+      </c>
+      <c r="F21" s="97">
         <f>D21*E21</f>
         <v>0</v>
       </c>
       <c r="G21" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="14.15" customHeight="1">
       <c r="A22" s="75"/>
-      <c r="B22" t="s" s="92">
-        <v>18</v>
-      </c>
+      <c r="B22" s="92"/>
       <c r="C22" t="s" s="93">
-        <v>41</v>
-      </c>
-      <c r="D22" s="103">
+        <v>36</v>
+      </c>
+      <c r="D22" s="94">
         <v>0</v>
       </c>
-      <c r="E22" s="99">
-        <v>330</v>
-      </c>
-      <c r="F22" s="100">
-        <f>E22*D22</f>
+      <c r="E22" s="95">
+        <v>148</v>
+      </c>
+      <c r="F22" s="98">
+        <f>D22*E22</f>
         <v>0</v>
       </c>
       <c r="G22" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" ht="19.45" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="24.65" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="101">
-        <v>42</v>
+      <c r="C23" t="s" s="93">
+        <v>40</v>
       </c>
       <c r="D23" s="94">
         <v>0</v>
       </c>
       <c r="E23" s="95">
-        <f>(18/0.8)</f>
-        <v>22.5</v>
-      </c>
-      <c r="F23" s="96">
-        <f>D23*E23</f>
         <v>0</v>
       </c>
+      <c r="F23" s="103">
+        <f>E23*D23</f>
+        <v>0</v>
+      </c>
       <c r="G23" t="s" s="91">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="24.65" customHeight="1">
       <c r="A24" s="75"/>
-      <c r="B24" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s" s="102">
-        <v>43</v>
-      </c>
-      <c r="D24" s="103">
+      <c r="B24" s="92"/>
+      <c r="C24" t="s" s="93">
+        <v>34</v>
+      </c>
+      <c r="D24" s="94">
         <v>0</v>
       </c>
-      <c r="E24" s="99">
-        <f>10/0.8</f>
-        <v>12.5</v>
-      </c>
-      <c r="F24" s="100">
+      <c r="E24" s="95">
+        <v>54.5</v>
+      </c>
+      <c r="F24" s="96">
         <f>E24*D24</f>
         <v>0</v>
       </c>
       <c r="G24" t="s" s="91">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.65" customHeight="1">
       <c r="A25" s="75"/>
-      <c r="B25" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s" s="102">
-        <v>44</v>
-      </c>
-      <c r="D25" s="103">
+      <c r="B25" s="92"/>
+      <c r="C25" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="D25" s="94">
         <v>0</v>
       </c>
-      <c r="E25" s="99">
-        <f>9/0.75</f>
-        <v>12</v>
-      </c>
-      <c r="F25" s="100">
-        <f>E25*D25</f>
+      <c r="E25" s="95">
+        <v>54.5</v>
+      </c>
+      <c r="F25" s="97">
+        <f>D25*E25</f>
         <v>0</v>
       </c>
       <c r="G25" t="s" s="91">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="24.65" customHeight="1">
       <c r="A26" s="75"/>
-      <c r="B26" t="s" s="92">
+      <c r="B26" s="92"/>
+      <c r="C26" t="s" s="93">
+        <v>36</v>
+      </c>
+      <c r="D26" s="94">
+        <v>0</v>
+      </c>
+      <c r="E26" s="95">
+        <v>54.5</v>
+      </c>
+      <c r="F26" s="98">
+        <f>D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="s" s="91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" ht="35.65" customHeight="1">
+      <c r="A27" s="75"/>
+      <c r="B27" t="s" s="86">
         <v>18</v>
       </c>
-      <c r="C26" t="s" s="102">
-        <v>45</v>
-      </c>
-      <c r="D26" s="103">
+      <c r="C27" t="s" s="99">
+        <v>41</v>
+      </c>
+      <c r="D27" s="94">
         <v>0</v>
       </c>
-      <c r="E26" s="99">
-        <v>6</v>
-      </c>
-      <c r="F26" s="100">
-        <f>E26*D26</f>
+      <c r="E27" s="95">
         <v>0</v>
       </c>
-      <c r="G26" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" ht="24.65" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s" s="102">
-        <v>46</v>
-      </c>
-      <c r="D27" s="103">
-        <v>0</v>
-      </c>
-      <c r="E27" s="99">
-        <v>53.5</v>
-      </c>
-      <c r="F27" s="100">
+      <c r="F27" s="103">
         <f>E27*D27</f>
         <v>0</v>
       </c>
       <c r="G27" t="s" s="91">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" ht="13.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" ht="35.65" customHeight="1">
       <c r="A28" s="75"/>
-      <c r="B28" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s" s="102">
-        <v>47</v>
-      </c>
-      <c r="D28" s="103">
+      <c r="B28" s="92"/>
+      <c r="C28" t="s" s="93">
+        <v>34</v>
+      </c>
+      <c r="D28" s="94">
         <v>0</v>
       </c>
-      <c r="E28" s="99">
-        <v>150</v>
-      </c>
-      <c r="F28" s="100">
+      <c r="E28" s="95">
+        <v>277.5</v>
+      </c>
+      <c r="F28" s="96">
         <f>E28*D28</f>
         <v>0</v>
       </c>
       <c r="G28" t="s" s="91">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" ht="44.85" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="35.65" customHeight="1">
       <c r="A29" s="75"/>
-      <c r="B29" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s" s="102">
-        <v>48</v>
-      </c>
-      <c r="D29" s="103">
+      <c r="B29" s="92"/>
+      <c r="C29" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="D29" s="94">
         <v>0</v>
       </c>
-      <c r="E29" s="99">
-        <v>250</v>
-      </c>
-      <c r="F29" s="100">
-        <f>E29*D29</f>
+      <c r="E29" s="95">
+        <v>242</v>
+      </c>
+      <c r="F29" s="97">
+        <f>D29*E29</f>
         <v>0</v>
       </c>
       <c r="G29" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" ht="20.2" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" ht="35.65" customHeight="1">
       <c r="A30" s="75"/>
-      <c r="B30" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s" s="102">
-        <v>49</v>
-      </c>
-      <c r="D30" s="103">
+      <c r="B30" s="92"/>
+      <c r="C30" t="s" s="93">
+        <v>36</v>
+      </c>
+      <c r="D30" s="94">
         <v>0</v>
       </c>
-      <c r="E30" s="99">
-        <v>6</v>
-      </c>
-      <c r="F30" s="100">
-        <f>E30*D30</f>
+      <c r="E30" s="95">
+        <v>199</v>
+      </c>
+      <c r="F30" s="98">
+        <f>D30*E30</f>
         <v>0</v>
       </c>
       <c r="G30" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="46.65" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C31" t="s" s="102">
-        <v>50</v>
-      </c>
-      <c r="D31" s="103">
+      <c r="C31" t="s" s="93">
+        <v>42</v>
+      </c>
+      <c r="D31" s="104">
         <v>0</v>
       </c>
-      <c r="E31" s="99">
-        <f>(12/0.8)</f>
-        <v>15</v>
-      </c>
-      <c r="F31" s="100">
-        <f>E31*D31</f>
+      <c r="E31" s="105">
         <v>0</v>
       </c>
+      <c r="F31" s="90">
+        <v>0</v>
+      </c>
       <c r="G31" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" ht="19.7" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" ht="21.6" customHeight="1">
       <c r="A32" s="75"/>
-      <c r="B32" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s" s="102">
-        <v>51</v>
-      </c>
-      <c r="D32" s="103">
+      <c r="B32" s="92"/>
+      <c r="C32" t="s" s="93">
+        <v>34</v>
+      </c>
+      <c r="D32" s="94">
         <v>0</v>
       </c>
-      <c r="E32" s="99">
-        <v>19</v>
-      </c>
-      <c r="F32" s="100">
+      <c r="E32" s="95">
+        <v>107.5</v>
+      </c>
+      <c r="F32" s="96">
         <f>E32*D32</f>
         <v>0</v>
       </c>
       <c r="G32" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" ht="20.3" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" ht="20.85" customHeight="1">
       <c r="A33" s="75"/>
-      <c r="B33" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s" s="102">
-        <v>52</v>
-      </c>
-      <c r="D33" s="103">
+      <c r="B33" s="92"/>
+      <c r="C33" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="D33" s="94">
         <v>0</v>
       </c>
-      <c r="E33" s="99">
-        <v>1075</v>
-      </c>
-      <c r="F33" s="100">
-        <f>E33*D33</f>
+      <c r="E33" s="95">
+        <v>89</v>
+      </c>
+      <c r="F33" s="97">
+        <f>D33*E33</f>
         <v>0</v>
       </c>
       <c r="G33" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" ht="31.3" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="25.1" customHeight="1">
       <c r="A34" s="75"/>
-      <c r="B34" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s" s="102">
-        <v>53</v>
-      </c>
-      <c r="D34" s="103">
+      <c r="B34" s="92"/>
+      <c r="C34" t="s" s="93">
+        <v>36</v>
+      </c>
+      <c r="D34" s="94">
         <v>0</v>
       </c>
-      <c r="E34" s="99">
-        <v>49</v>
-      </c>
-      <c r="F34" s="100">
-        <f>E34*D34</f>
+      <c r="E34" s="95">
+        <v>76.5</v>
+      </c>
+      <c r="F34" s="98">
+        <f>D34*E34</f>
         <v>0</v>
       </c>
       <c r="G34" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" ht="13.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" ht="35.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C35" t="s" s="102">
-        <v>54</v>
-      </c>
-      <c r="D35" s="103">
+      <c r="C35" t="s" s="93">
+        <v>43</v>
+      </c>
+      <c r="D35" s="104">
         <v>0</v>
       </c>
-      <c r="E35" s="99">
-        <v>550</v>
-      </c>
-      <c r="F35" s="100">
-        <f>E35*D35</f>
+      <c r="E35" s="105">
         <v>0</v>
       </c>
+      <c r="F35" s="90">
+        <v>0</v>
+      </c>
       <c r="G35" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="35.65" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s" s="102">
-        <v>55</v>
-      </c>
-      <c r="D36" s="103">
+      <c r="B36" s="92"/>
+      <c r="C36" t="s" s="93">
+        <v>34</v>
+      </c>
+      <c r="D36" s="94">
         <v>0</v>
       </c>
-      <c r="E36" s="99">
-        <v>450</v>
-      </c>
-      <c r="F36" s="100">
+      <c r="E36" s="95">
+        <v>144</v>
+      </c>
+      <c r="F36" s="96">
         <f>E36*D36</f>
         <v>0</v>
       </c>
       <c r="G36" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" ht="35.65" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s" s="102">
-        <v>56</v>
-      </c>
-      <c r="D37" s="103">
+      <c r="B37" s="92"/>
+      <c r="C37" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="D37" s="94">
         <v>0</v>
       </c>
-      <c r="E37" s="99">
-        <v>450</v>
-      </c>
-      <c r="F37" s="100">
-        <f>E37*D37</f>
+      <c r="E37" s="95">
+        <v>130</v>
+      </c>
+      <c r="F37" s="97">
+        <f>D37*E37</f>
         <v>0</v>
       </c>
       <c r="G37" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" ht="24.8" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" ht="35.65" customHeight="1">
       <c r="A38" s="75"/>
-      <c r="B38" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s" s="102">
-        <v>57</v>
-      </c>
-      <c r="D38" s="103">
+      <c r="B38" s="92"/>
+      <c r="C38" t="s" s="93">
+        <v>36</v>
+      </c>
+      <c r="D38" s="94">
         <v>0</v>
       </c>
-      <c r="E38" s="99">
-        <v>200</v>
-      </c>
-      <c r="F38" s="100">
-        <f>E38*D38</f>
+      <c r="E38" s="95">
+        <v>119</v>
+      </c>
+      <c r="F38" s="98">
+        <f>D38*E38</f>
         <v>0</v>
       </c>
       <c r="G38" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" ht="24.8" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="47.15" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C39" t="s" s="102">
-        <v>58</v>
-      </c>
-      <c r="D39" s="103">
+      <c r="C39" t="s" s="93">
+        <v>44</v>
+      </c>
+      <c r="D39" s="104">
         <v>0</v>
       </c>
-      <c r="E39" s="99">
-        <v>40</v>
-      </c>
-      <c r="F39" s="100">
+      <c r="E39" s="105">
+        <v>390</v>
+      </c>
+      <c r="F39" s="96">
         <f>E39*D39</f>
         <v>0</v>
       </c>
       <c r="G39" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" ht="24.8" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" ht="35.65" customHeight="1">
       <c r="A40" s="75"/>
-      <c r="B40" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s" s="102">
-        <v>59</v>
-      </c>
-      <c r="D40" s="103">
+      <c r="B40" t="s" s="86">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s" s="106">
+        <v>46</v>
+      </c>
+      <c r="D40" s="104">
         <v>0</v>
       </c>
-      <c r="E40" s="99">
-        <v>40</v>
-      </c>
-      <c r="F40" s="100">
+      <c r="E40" s="105">
+        <f>135</f>
+        <v>135</v>
+      </c>
+      <c r="F40" s="107">
         <f>E40*D40</f>
         <v>0</v>
       </c>
       <c r="G40" t="s" s="91">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" ht="13.65" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s" s="102">
-        <v>60</v>
-      </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="100">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s" s="93">
+        <v>47</v>
+      </c>
+      <c r="D41" s="104">
+        <v>0</v>
+      </c>
+      <c r="E41" s="105">
+        <v>750</v>
+      </c>
+      <c r="F41" s="107">
         <f>E41*D41</f>
         <v>0</v>
       </c>
       <c r="G41" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" ht="35.65" customHeight="1">
       <c r="A42" s="75"/>
-      <c r="B42" t="s" s="92">
+      <c r="B42" t="s" s="86">
         <v>18</v>
       </c>
-      <c r="C42" t="s" s="102">
-        <v>61</v>
-      </c>
-      <c r="D42" s="103">
+      <c r="C42" t="s" s="106">
+        <v>48</v>
+      </c>
+      <c r="D42" s="104">
         <v>0</v>
       </c>
-      <c r="E42" s="99">
-        <f>72</f>
-        <v>72</v>
-      </c>
-      <c r="F42" s="100">
+      <c r="E42" s="105">
+        <v>99</v>
+      </c>
+      <c r="F42" s="107">
         <f>E42*D42</f>
         <v>0</v>
       </c>
       <c r="G42" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" ht="46.65" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" t="s" s="92">
         <v>18</v>
       </c>
-      <c r="C43" t="s" s="102">
-        <v>62</v>
-      </c>
-      <c r="D43" s="103">
+      <c r="C43" t="s" s="93">
+        <v>49</v>
+      </c>
+      <c r="D43" s="104">
         <v>0</v>
       </c>
-      <c r="E43" s="99">
-        <v>490</v>
-      </c>
-      <c r="F43" s="100">
+      <c r="E43" s="105">
+        <v>135</v>
+      </c>
+      <c r="F43" s="107">
         <f>E43*D43</f>
         <v>0</v>
       </c>
       <c r="G43" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" ht="24.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" ht="46.65" customHeight="1">
       <c r="A44" s="75"/>
-      <c r="B44" t="s" s="92">
+      <c r="B44" t="s" s="86">
         <v>18</v>
       </c>
-      <c r="C44" t="s" s="102">
-        <v>63</v>
-      </c>
-      <c r="D44" s="103">
+      <c r="C44" t="s" s="108">
+        <v>50</v>
+      </c>
+      <c r="D44" s="109">
         <v>0</v>
       </c>
-      <c r="E44" s="99">
-        <v>200</v>
-      </c>
-      <c r="F44" s="100">
+      <c r="E44" s="110">
+        <v>175</v>
+      </c>
+      <c r="F44" s="111">
         <f>E44*D44</f>
         <v>0</v>
       </c>
       <c r="G44" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" ht="24.65" customHeight="1">
-      <c r="A45" s="75"/>
-      <c r="B45" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s" s="102">
-        <v>64</v>
-      </c>
-      <c r="D45" s="103">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="A45" s="112"/>
+      <c r="B45" s="113"/>
+      <c r="C45" t="s" s="114">
+        <v>51</v>
+      </c>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116">
         <v>0</v>
       </c>
-      <c r="E45" s="99">
-        <v>15</v>
-      </c>
-      <c r="F45" s="100">
-        <f>E45*D45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" ht="24.65" customHeight="1">
-      <c r="A46" s="75"/>
-      <c r="B46" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s" s="102">
-        <v>65</v>
-      </c>
-      <c r="D46" s="103">
-        <v>0</v>
-      </c>
-      <c r="E46" s="99">
-        <v>3800</v>
-      </c>
-      <c r="F46" s="100">
-        <f>E46*D46</f>
-        <v>0</v>
-      </c>
-      <c r="G46" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" ht="24.65" customHeight="1">
-      <c r="A47" s="75"/>
-      <c r="B47" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s" s="102">
-        <v>66</v>
-      </c>
-      <c r="D47" s="103">
-        <v>0</v>
-      </c>
-      <c r="E47" s="99">
-        <v>150</v>
-      </c>
-      <c r="F47" s="100">
-        <f>E47*D47</f>
-        <v>0</v>
-      </c>
-      <c r="G47" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" ht="13.65" customHeight="1">
-      <c r="A48" s="75"/>
-      <c r="B48" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s" s="102">
-        <v>67</v>
-      </c>
-      <c r="D48" s="103">
-        <v>0</v>
-      </c>
-      <c r="E48" s="99">
-        <v>2500</v>
-      </c>
-      <c r="F48" s="100">
-        <f>E48*D48</f>
-        <v>0</v>
-      </c>
-      <c r="G48" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" ht="13.65" customHeight="1">
-      <c r="A49" s="75"/>
-      <c r="B49" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s" s="102">
-        <v>68</v>
-      </c>
-      <c r="D49" s="103">
-        <v>0</v>
-      </c>
-      <c r="E49" s="99">
-        <v>715</v>
-      </c>
-      <c r="F49" s="100">
-        <f>E49*D49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" ht="13.65" customHeight="1">
-      <c r="A50" s="75"/>
-      <c r="B50" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s" s="102">
-        <v>69</v>
-      </c>
-      <c r="D50" s="103">
-        <v>0</v>
-      </c>
-      <c r="E50" s="99">
-        <v>200</v>
-      </c>
-      <c r="F50" s="100">
-        <f>E50*D50</f>
-        <v>0</v>
-      </c>
-      <c r="G50" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" ht="13.65" customHeight="1">
-      <c r="A51" s="75"/>
-      <c r="B51" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s" s="102">
-        <v>70</v>
-      </c>
-      <c r="D51" s="103">
-        <v>0</v>
-      </c>
-      <c r="E51" s="99">
-        <f>600/0.8</f>
-        <v>750</v>
-      </c>
-      <c r="F51" s="100">
-        <f>E51*D51</f>
-        <v>0</v>
-      </c>
-      <c r="G51" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" ht="24.65" customHeight="1">
-      <c r="A52" s="75"/>
-      <c r="B52" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s" s="102">
-        <v>71</v>
-      </c>
-      <c r="D52" s="103">
-        <v>0</v>
-      </c>
-      <c r="E52" s="99">
-        <v>20</v>
-      </c>
-      <c r="F52" s="100">
-        <f>E52*D52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" ht="24.65" customHeight="1">
-      <c r="A53" s="75"/>
-      <c r="B53" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s" s="102">
-        <v>72</v>
-      </c>
-      <c r="D53" s="103">
-        <v>0</v>
-      </c>
-      <c r="E53" s="99">
-        <v>32</v>
-      </c>
-      <c r="F53" s="100">
-        <f>E53*D53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" ht="35.65" customHeight="1">
-      <c r="A54" s="75"/>
-      <c r="B54" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s" s="102">
-        <v>73</v>
-      </c>
-      <c r="D54" s="103">
-        <v>0</v>
-      </c>
-      <c r="E54" s="99">
-        <v>45</v>
-      </c>
-      <c r="F54" s="100">
-        <f>D54*E54</f>
-        <v>0</v>
-      </c>
-      <c r="G54" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" ht="14.65" customHeight="1">
-      <c r="A55" s="75"/>
-      <c r="B55" t="s" s="92">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s" s="105">
-        <v>74</v>
-      </c>
-      <c r="D55" s="106">
-        <v>0</v>
-      </c>
-      <c r="E55" s="107">
-        <v>200</v>
-      </c>
-      <c r="F55" s="108">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s" s="91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="109"/>
-      <c r="B56" s="110"/>
-      <c r="C56" t="s" s="111">
-        <v>75</v>
-      </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="113">
-        <v>0</v>
-      </c>
-      <c r="G56" s="114"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="73"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="73"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="71"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="73"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="71"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="71"/>
-      <c r="B63" t="s" s="116">
-        <v>76</v>
-      </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="118"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="71"/>
-      <c r="B64" t="s" s="116">
-        <v>77</v>
-      </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="118"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="71"/>
-      <c r="B65" t="s" s="116">
-        <v>78</v>
-      </c>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="118"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="119"/>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="121"/>
+      <c r="G45" s="117"/>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="A46" s="71"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="73"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1">
+      <c r="A49" s="71"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="A51" s="71"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="A52" s="71"/>
+      <c r="B52" t="s" s="119">
+        <v>52</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="121"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="71"/>
+      <c r="B53" t="s" s="119">
+        <v>53</v>
+      </c>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="121"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="A54" s="71"/>
+      <c r="B54" t="s" s="119">
+        <v>54</v>
+      </c>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="121"/>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="A55" s="122"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7151,15 +6810,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="122" customWidth="1"/>
-    <col min="2" max="2" width="6.67188" style="122" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="122" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="122" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="122" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="122" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="122" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="122" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="122" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="125" customWidth="1"/>
+    <col min="2" max="2" width="6.67188" style="125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="125" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="125" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="125" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="125" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="125" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -7184,12 +6843,12 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="71"/>
-      <c r="B3" s="123"/>
+      <c r="B3" s="126"/>
       <c r="C3" t="s" s="76">
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -7198,12 +6857,12 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="71"/>
-      <c r="B4" s="123"/>
+      <c r="B4" s="126"/>
       <c r="C4" t="s" s="78">
         <v>17</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -7212,12 +6871,12 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="71"/>
-      <c r="B5" s="123"/>
+      <c r="B5" s="126"/>
       <c r="C5" t="s" s="78">
         <v>19</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -7226,12 +6885,12 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="123"/>
+      <c r="B6" s="126"/>
       <c r="C6" t="s" s="78">
         <v>21</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -7240,12 +6899,12 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="123"/>
+      <c r="B7" s="126"/>
       <c r="C7" t="s" s="78">
         <v>22</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -7254,12 +6913,12 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="123"/>
+      <c r="B8" s="126"/>
       <c r="C8" t="s" s="80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -7299,56 +6958,56 @@
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" t="s" s="124">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s" s="125">
-        <v>86</v>
-      </c>
-      <c r="E12" t="s" s="125">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s" s="125">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s" s="126">
-        <v>89</v>
+      <c r="C12" t="s" s="127">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s" s="128">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s" s="128">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s" s="128">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s" s="129">
+        <v>65</v>
       </c>
       <c r="H12" t="s" s="85">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="71"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="127">
+      <c r="C13" s="130">
         <v>43577</v>
       </c>
-      <c r="D13" t="s" s="128">
-        <v>90</v>
-      </c>
-      <c r="E13" s="129">
+      <c r="D13" t="s" s="131">
+        <v>66</v>
+      </c>
+      <c r="E13" s="132">
         <v>50</v>
       </c>
-      <c r="F13" s="130">
+      <c r="F13" s="133">
         <v>150</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="134">
         <f>F13*E13</f>
         <v>7500</v>
       </c>
-      <c r="H13" t="s" s="132">
-        <v>91</v>
+      <c r="H13" t="s" s="135">
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="133">
+      <c r="C14" s="136">
         <v>43577</v>
       </c>
-      <c r="D14" t="s" s="93">
-        <v>92</v>
+      <c r="D14" t="s" s="137">
+        <v>68</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7356,46 +7015,46 @@
       <c r="F14" s="95">
         <v>130</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="138">
         <f>F14*E14</f>
         <v>3120</v>
       </c>
-      <c r="H14" t="s" s="132">
-        <v>91</v>
+      <c r="H14" t="s" s="135">
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="135">
+      <c r="C15" s="139">
         <v>43577</v>
       </c>
-      <c r="D15" t="s" s="97">
-        <v>93</v>
-      </c>
-      <c r="E15" s="98">
+      <c r="D15" t="s" s="140">
+        <v>69</v>
+      </c>
+      <c r="E15" s="141">
         <f>E13*2+E14</f>
         <v>124</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="105">
         <v>1.21</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="142">
         <f>F15*E15</f>
         <v>150.04</v>
       </c>
-      <c r="H15" t="s" s="132">
-        <v>91</v>
+      <c r="H15" t="s" s="135">
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="133">
+      <c r="C16" s="136">
         <v>43578</v>
       </c>
-      <c r="D16" t="s" s="101">
-        <v>94</v>
+      <c r="D16" t="s" s="93">
+        <v>70</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7403,43 +7062,43 @@
       <c r="F16" s="95">
         <v>228</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="138">
         <v>228</v>
       </c>
-      <c r="H16" t="s" s="132">
-        <v>95</v>
+      <c r="H16" t="s" s="135">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="135">
+      <c r="C17" s="139">
         <v>43578</v>
       </c>
-      <c r="D17" t="s" s="102">
-        <v>96</v>
-      </c>
-      <c r="E17" s="103">
+      <c r="D17" t="s" s="106">
+        <v>72</v>
+      </c>
+      <c r="E17" s="104">
         <v>1</v>
       </c>
-      <c r="F17" s="99">
+      <c r="F17" s="105">
         <v>345</v>
       </c>
-      <c r="G17" s="136">
+      <c r="G17" s="142">
         <v>345</v>
       </c>
-      <c r="H17" t="s" s="132">
-        <v>95</v>
+      <c r="H17" t="s" s="135">
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="133">
+      <c r="C18" s="136">
         <v>43578</v>
       </c>
-      <c r="D18" t="s" s="101">
-        <v>97</v>
+      <c r="D18" t="s" s="93">
+        <v>73</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7447,43 +7106,43 @@
       <c r="F18" s="95">
         <v>1.5</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="138">
         <v>60</v>
       </c>
-      <c r="H18" t="s" s="132">
-        <v>95</v>
+      <c r="H18" t="s" s="135">
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="135">
+      <c r="C19" s="139">
         <v>43578</v>
       </c>
-      <c r="D19" t="s" s="102">
-        <v>98</v>
-      </c>
-      <c r="E19" s="103">
+      <c r="D19" t="s" s="106">
+        <v>74</v>
+      </c>
+      <c r="E19" s="104">
         <v>34</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="105">
         <v>46</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="142">
         <v>1564</v>
       </c>
-      <c r="H19" t="s" s="132">
-        <v>32</v>
+      <c r="H19" t="s" s="135">
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="133">
+      <c r="C20" s="136">
         <v>43578</v>
       </c>
-      <c r="D20" t="s" s="101">
-        <v>99</v>
+      <c r="D20" t="s" s="93">
+        <v>75</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7491,44 +7150,44 @@
       <c r="F20" s="95">
         <v>38</v>
       </c>
-      <c r="G20" s="134">
+      <c r="G20" s="138">
         <f>F20*E20</f>
         <v>2356</v>
       </c>
-      <c r="H20" t="s" s="132">
-        <v>38</v>
+      <c r="H20" t="s" s="135">
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="135">
+      <c r="C21" s="139">
         <v>43579</v>
       </c>
-      <c r="D21" t="s" s="102">
-        <v>100</v>
-      </c>
-      <c r="E21" s="103">
+      <c r="D21" t="s" s="106">
+        <v>77</v>
+      </c>
+      <c r="E21" s="104">
         <v>102</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="105">
         <v>3.5</v>
       </c>
-      <c r="G21" s="136">
+      <c r="G21" s="142">
         <v>357</v>
       </c>
-      <c r="H21" t="s" s="132">
-        <v>32</v>
+      <c r="H21" t="s" s="135">
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="133">
+      <c r="C22" s="136">
         <v>43579</v>
       </c>
-      <c r="D22" t="s" s="101">
-        <v>101</v>
+      <c r="D22" t="s" s="93">
+        <v>78</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7536,81 +7195,81 @@
       <c r="F22" s="95">
         <v>228</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="138">
         <v>228</v>
       </c>
-      <c r="H22" t="s" s="132">
-        <v>95</v>
+      <c r="H22" t="s" s="135">
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="135">
+      <c r="C23" s="139">
         <v>43579</v>
       </c>
-      <c r="D23" t="s" s="102">
-        <v>102</v>
-      </c>
-      <c r="E23" s="103">
+      <c r="D23" t="s" s="106">
+        <v>79</v>
+      </c>
+      <c r="E23" s="104">
         <v>1</v>
       </c>
-      <c r="F23" s="99">
+      <c r="F23" s="105">
         <v>228</v>
       </c>
-      <c r="G23" s="136">
+      <c r="G23" s="142">
         <v>228</v>
       </c>
-      <c r="H23" t="s" s="132">
-        <v>95</v>
+      <c r="H23" t="s" s="135">
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="137">
+      <c r="C24" s="143">
         <v>43579</v>
       </c>
-      <c r="D24" t="s" s="138">
-        <v>97</v>
-      </c>
-      <c r="E24" s="139">
+      <c r="D24" t="s" s="144">
+        <v>73</v>
+      </c>
+      <c r="E24" s="145">
         <v>40</v>
       </c>
-      <c r="F24" s="140">
+      <c r="F24" s="146">
         <v>1.5</v>
       </c>
-      <c r="G24" s="141">
+      <c r="G24" s="147">
         <v>60</v>
       </c>
-      <c r="H24" t="s" s="132">
-        <v>95</v>
+      <c r="H24" t="s" s="135">
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="142"/>
-      <c r="D25" t="s" s="143">
-        <v>75</v>
-      </c>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145">
+      <c r="B25" s="126"/>
+      <c r="C25" s="148"/>
+      <c r="D25" t="s" s="149">
+        <v>51</v>
+      </c>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151">
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="81"/>
-      <c r="D26" s="146"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="147"/>
+      <c r="G26" s="153"/>
       <c r="H26" s="73"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -7626,9 +7285,9 @@
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="123"/>
-      <c r="D28" t="s" s="148">
-        <v>104</v>
+      <c r="C28" s="126"/>
+      <c r="D28" t="s" s="154">
+        <v>81</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7638,9 +7297,9 @@
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="123"/>
-      <c r="D29" t="s" s="149">
-        <v>105</v>
+      <c r="C29" s="126"/>
+      <c r="D29" t="s" s="155">
+        <v>82</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7650,9 +7309,9 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="123"/>
-      <c r="D30" t="s" s="150">
-        <v>106</v>
+      <c r="C30" s="126"/>
+      <c r="D30" t="s" s="156">
+        <v>83</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7662,9 +7321,9 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="123"/>
-      <c r="D31" t="s" s="150">
-        <v>107</v>
+      <c r="C31" s="126"/>
+      <c r="D31" t="s" s="156">
+        <v>84</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7674,9 +7333,9 @@
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="123"/>
-      <c r="D32" t="s" s="151">
-        <v>108</v>
+      <c r="C32" s="126"/>
+      <c r="D32" t="s" s="157">
+        <v>85</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7736,48 +7395,48 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
-      <c r="C38" t="s" s="116">
-        <v>76</v>
-      </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
+      <c r="C38" t="s" s="119">
+        <v>52</v>
+      </c>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
       <c r="H38" s="73"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
-      <c r="C39" t="s" s="116">
-        <v>77</v>
-      </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
+      <c r="C39" t="s" s="119">
+        <v>53</v>
+      </c>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
       <c r="H39" s="73"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
-      <c r="C40" t="s" s="116">
-        <v>78</v>
-      </c>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
+      <c r="C40" t="s" s="119">
+        <v>54</v>
+      </c>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
       <c r="H40" s="73"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="119"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="121"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7797,12 +7456,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="153" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="153" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="153" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="153" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="153" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="153" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="159" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="159" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="159" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="159" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="159" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="159" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -7828,53 +7487,53 @@
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" t="s" s="154">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s" s="154">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s" s="154">
-        <v>111</v>
+      <c r="B4" t="s" s="160">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s" s="160">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s" s="160">
+        <v>88</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="155">
+      <c r="B5" s="161">
         <v>43646</v>
       </c>
-      <c r="C5" s="156">
+      <c r="C5" s="162">
         <v>3239.21</v>
       </c>
-      <c r="D5" t="s" s="154">
-        <v>112</v>
+      <c r="D5" t="s" s="160">
+        <v>89</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="155">
+      <c r="B6" s="161">
         <v>43738</v>
       </c>
-      <c r="C6" s="156">
+      <c r="C6" s="162">
         <v>6478.42</v>
       </c>
-      <c r="D6" t="s" s="154">
-        <v>113</v>
+      <c r="D6" t="s" s="160">
+        <v>90</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="155">
+      <c r="B7" s="161">
         <v>43766</v>
       </c>
-      <c r="C7" s="156">
+      <c r="C7" s="162">
         <v>6478.42</v>
       </c>
-      <c r="D7" t="s" s="154">
-        <v>113</v>
+      <c r="D7" t="s" s="160">
+        <v>90</v>
       </c>
       <c r="E7" s="11"/>
     </row>
